--- a/src/public/samples/create-multiple-account.xlsx
+++ b/src/public/samples/create-multiple-account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Culi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\webbankhoahoc\backend\src\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A358B641-518B-4520-A86A-B23CC6340683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E3052-4AD4-4469-91AD-3F3F18D4028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66EBCBF0-8B5F-4925-8347-3CFF073396F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>email</t>
   </si>
@@ -50,13 +50,259 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>efert269@gmail.com</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hoàng Nam</t>
+  </si>
+  <si>
+    <t>hacthuylong@gmail.com</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Luân</t>
+  </si>
+  <si>
+    <t>1851120028@sv.ut.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn văn a</t>
+  </si>
+  <si>
+    <t>1851120027@sv.ut.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn văn b</t>
+  </si>
+  <si>
+    <t>pmhnamdev@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Văn Dự</t>
+  </si>
+  <si>
+    <t>ngannam10a113@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần quốc tố</t>
+  </si>
+  <si>
+    <t>acc2@gmail.com</t>
+  </si>
+  <si>
+    <t>acc1@gmail.com</t>
+  </si>
+  <si>
+    <t>acc3@gmail.com</t>
+  </si>
+  <si>
+    <t>acc4@gmail.com</t>
+  </si>
+  <si>
+    <t>acc5@gmail.com</t>
+  </si>
+  <si>
+    <t>acc6@gmail.com</t>
+  </si>
+  <si>
+    <t>acc7@gmail.com</t>
+  </si>
+  <si>
+    <t>acc8@gmail.com</t>
+  </si>
+  <si>
+    <t>acc9@gmail.com</t>
+  </si>
+  <si>
+    <t>acc10@gmail.com</t>
+  </si>
+  <si>
+    <t>acc11@gmail.com</t>
+  </si>
+  <si>
+    <t>acc12@gmail.com</t>
+  </si>
+  <si>
+    <t>acc13@gmail.com</t>
+  </si>
+  <si>
+    <t>acc14@gmail.com</t>
+  </si>
+  <si>
+    <t>acc15@gmail.com</t>
+  </si>
+  <si>
+    <t>acc16@gmail.com</t>
+  </si>
+  <si>
+    <t>acc17@gmail.com</t>
+  </si>
+  <si>
+    <t>acc18@gmail.com</t>
+  </si>
+  <si>
+    <t>acc19@gmail.com</t>
+  </si>
+  <si>
+    <t>acc20@gmail.com</t>
+  </si>
+  <si>
+    <t>acc21@gmail.com</t>
+  </si>
+  <si>
+    <t>gv1@gmail.com</t>
+  </si>
+  <si>
+    <t>gv2@gmail.com</t>
+  </si>
+  <si>
+    <t>gv3@gmail.com</t>
+  </si>
+  <si>
+    <t>gv4@gmail.com</t>
+  </si>
+  <si>
+    <t>gv5@gmail.com</t>
+  </si>
+  <si>
+    <t>gv7@gmail.com</t>
+  </si>
+  <si>
+    <t>gv8@gmail.com</t>
+  </si>
+  <si>
+    <t>gv9@gmail.com</t>
+  </si>
+  <si>
+    <t>gv10@gmail.com</t>
+  </si>
+  <si>
+    <t>11gv@gmail.com</t>
+  </si>
+  <si>
+    <t>12gv@gmail.com</t>
+  </si>
+  <si>
+    <t>13gv@gmail.com</t>
+  </si>
+  <si>
+    <t>14gv@gmail.com</t>
+  </si>
+  <si>
+    <t>15gv@gmail.com</t>
+  </si>
+  <si>
+    <t>16gv@gmail.com</t>
+  </si>
+  <si>
+    <t>17gv@gmail.com</t>
+  </si>
+  <si>
+    <t>18gv@gmail.com</t>
+  </si>
+  <si>
+    <t>19gv@gmail.com</t>
+  </si>
+  <si>
+    <t>20gv@gmail.com</t>
+  </si>
+  <si>
+    <t>21gv@gmail.com</t>
+  </si>
+  <si>
+    <t>22gv@gmail.com</t>
+  </si>
+  <si>
+    <t>23gv@gmail.com</t>
+  </si>
+  <si>
+    <t>24gv@gmail.com</t>
+  </si>
+  <si>
+    <t>25gv@gmail.com</t>
+  </si>
+  <si>
+    <t>26gv@gmail.com</t>
+  </si>
+  <si>
+    <t>27gv@gmail.com</t>
+  </si>
+  <si>
+    <t>28gv@gmail.com</t>
+  </si>
+  <si>
+    <t>29gv@gmail.com</t>
+  </si>
+  <si>
+    <t>30gv@gmail.com</t>
+  </si>
+  <si>
+    <t>acc22@gmail.com</t>
+  </si>
+  <si>
+    <t>acc23@gmail.com</t>
+  </si>
+  <si>
+    <t>acc24@gmail.com</t>
+  </si>
+  <si>
+    <t>acc25@gmail.com</t>
+  </si>
+  <si>
+    <t>acc26@gmail.com</t>
+  </si>
+  <si>
+    <t>acc27@gmail.com</t>
+  </si>
+  <si>
+    <t>acc28@gmail.com</t>
+  </si>
+  <si>
+    <t>acc29@gmail.com</t>
+  </si>
+  <si>
+    <t>acc30@gmail.com</t>
+  </si>
+  <si>
+    <t>acc31@gmail.com</t>
+  </si>
+  <si>
+    <t>acc32@gmail.com</t>
+  </si>
+  <si>
+    <t>acc33@gmail.com</t>
+  </si>
+  <si>
+    <t>acc34@gmail.com</t>
+  </si>
+  <si>
+    <t>acc35@gmail.com</t>
+  </si>
+  <si>
+    <t>gv6@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +317,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +353,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,16 +676,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF5D678-08BD-47E4-9074-54D6FC1ECA1A}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -445,151 +709,1305 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>123456789</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>123456789</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>123456789</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>123456789</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>123456789</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>123456789</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>123456789</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>123456789</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>123456789</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>123456789</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>123456789</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>123456789</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>123456789</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>123456789</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>123456789</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>123456789</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>123456789</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>123456789</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>123456789</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>123456789</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>123456789</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>123456789</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>123456789</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>123456789</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>123456789</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>123456789</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>123456789</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>123456789</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>123456789</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>123456789</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>123456789</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>123456789</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>123456789</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>123456789</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>123456789</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>123456789</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>123456789</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>123456789</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>123456789</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>123456789</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>123456789</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>123456789</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>123456789</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>123456789</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>123456789</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>123456789</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>123456789</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>123456789</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>123456789</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>123456789</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>123456789</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>123456789</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>123456789</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>123456789</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>123456789</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>123456789</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>123456789</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>123456789</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>123456789</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>123456789</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>123456789</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>123456789</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>123456789</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>123456789</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>123456789</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68">
+        <v>123456789</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>123456789</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70">
+        <v>123456789</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71">
+        <v>123456789</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>123456789</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>123456789</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7C47447E-C29B-4CDD-9D6B-FDB82C2FE7AC}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{9E7EA259-9FF1-486C-89A1-4CAA3C7185FD}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8C143778-3431-4CB6-B581-857CF0505789}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{254B791C-729E-4C1A-8F4E-60770224A9E5}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{662D15C4-1091-4F05-BA92-400BE1A42EE1}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{69793102-4D96-435B-BAFC-5A698E1A44AE}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{D77E7FCD-DB9E-40AD-B592-F984D1B6B853}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{31232F9B-67C2-4CBB-B658-F609AF356067}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{234474AA-DF13-472C-AC3D-D2A18BB1A308}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{D62D00D5-AB19-4683-B45F-9AC04D8278E4}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{68BD007C-A27A-40B8-89E1-D8A54EB3B8C4}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{81BFFE49-99AE-4435-9763-A94F27E5A8CD}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{40A7453A-E915-4D05-99B8-FC57E7956D5B}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{D58F3C47-B9AB-4593-9398-7E78ADBB36C4}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{B81D7AB0-5CBC-4C25-B248-5A6AA0F0BCF0}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{AF32BFE9-6108-4D43-871C-1024873DFD0D}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{E269FAF0-5730-4813-8660-4F691F4CFAD8}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{CC880314-42A6-42B6-AF5A-04A113B61B42}"/>
+    <hyperlink ref="D14" r:id="rId19" xr:uid="{81B5C485-D71A-48CE-BA9B-9059A945E806}"/>
+    <hyperlink ref="A15" r:id="rId20" xr:uid="{4E49692B-05FC-44A4-8174-725CF1845A24}"/>
+    <hyperlink ref="A16" r:id="rId21" xr:uid="{A037892F-5362-495B-8186-49D963EFFBE5}"/>
+    <hyperlink ref="A17" r:id="rId22" xr:uid="{BB05E3AF-748C-4D52-9F84-D3E61C69D0D7}"/>
+    <hyperlink ref="A18" r:id="rId23" xr:uid="{64F4B14F-C4D4-4603-A8DA-EF538E3B1BA2}"/>
+    <hyperlink ref="A19" r:id="rId24" xr:uid="{54050050-B832-4B08-A3C5-FA96E150D260}"/>
+    <hyperlink ref="A20" r:id="rId25" xr:uid="{E56C6FFC-7E3F-4678-9E14-83F513E15720}"/>
+    <hyperlink ref="A21" r:id="rId26" xr:uid="{D067720B-0CEE-4B8A-8CC8-8E6407D5A9D6}"/>
+    <hyperlink ref="A22" r:id="rId27" xr:uid="{D136640E-39E3-48C5-B67B-848663A2034F}"/>
+    <hyperlink ref="A23" r:id="rId28" xr:uid="{E308E5BA-C87D-4E9A-B923-8676D5162D25}"/>
+    <hyperlink ref="A24" r:id="rId29" xr:uid="{8D571E17-6958-43A4-9A0C-B7B1F082E2C5}"/>
+    <hyperlink ref="A25" r:id="rId30" xr:uid="{B9C94ECC-9892-41E8-B5D4-327DF7C91626}"/>
+    <hyperlink ref="A26" r:id="rId31" xr:uid="{B1BDDA93-E7E3-47E3-B1F5-31F4077DFFCD}"/>
+    <hyperlink ref="A27" r:id="rId32" xr:uid="{E1258017-1844-4538-BB80-447A657FA7FE}"/>
+    <hyperlink ref="A28" r:id="rId33" xr:uid="{1FBB5319-6F99-4DA0-8911-FA6F9B900E0B}"/>
+    <hyperlink ref="A29" r:id="rId34" xr:uid="{BDDE9275-0ABD-4462-B9F4-DE8CE6E88900}"/>
+    <hyperlink ref="D15" r:id="rId35" xr:uid="{76F50216-EDFF-4BBB-9970-342115551FC6}"/>
+    <hyperlink ref="D16" r:id="rId36" xr:uid="{EBAF26D5-5A99-4D08-ABF8-EDE388643FF0}"/>
+    <hyperlink ref="D17" r:id="rId37" xr:uid="{46A9B8F4-FD89-4DCB-9C73-7B8C083282EF}"/>
+    <hyperlink ref="D18" r:id="rId38" xr:uid="{267D5C75-4D67-45EE-8399-5473A53A4C03}"/>
+    <hyperlink ref="D19" r:id="rId39" xr:uid="{64931778-1AB6-43E5-9690-C6EF5122EAA3}"/>
+    <hyperlink ref="D20" r:id="rId40" xr:uid="{BE34543A-644D-4F68-BED3-1B5CA1B61DF9}"/>
+    <hyperlink ref="D21" r:id="rId41" xr:uid="{FBACB8A2-5F00-475B-83F4-667FF386D2DB}"/>
+    <hyperlink ref="D22" r:id="rId42" xr:uid="{7FF129D5-AFB1-4B42-A258-2D0CB04DD6DD}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{F64C74AC-2BE5-4019-B322-4DE236A0C00D}"/>
+    <hyperlink ref="D24" r:id="rId44" xr:uid="{54A520BD-2E83-4417-8C47-E65AA408B746}"/>
+    <hyperlink ref="D25" r:id="rId45" xr:uid="{A6B5344F-19B3-487E-B110-83DBD7C7A714}"/>
+    <hyperlink ref="D26" r:id="rId46" xr:uid="{EC9CBFFE-D2E9-4E37-A30D-72343CC0C7A0}"/>
+    <hyperlink ref="D27" r:id="rId47" xr:uid="{6F743B14-A3A3-45EE-8C94-2EF40D424821}"/>
+    <hyperlink ref="D28" r:id="rId48" xr:uid="{89CBA4F8-D3B7-40AF-87F4-9D4CEE8D8E84}"/>
+    <hyperlink ref="D29" r:id="rId49" xr:uid="{921AABBB-0668-479B-B23B-E85A1DB39FF3}"/>
+    <hyperlink ref="A30" r:id="rId50" xr:uid="{FAA7A8F9-CC43-44AE-A07F-7F4AD2A1C22B}"/>
+    <hyperlink ref="A31" r:id="rId51" xr:uid="{54C7ACAA-FA9B-4FD9-82F8-EE14FCA14416}"/>
+    <hyperlink ref="A32" r:id="rId52" xr:uid="{B3836A05-E32B-420F-AAC5-D926280C9C8E}"/>
+    <hyperlink ref="A33" r:id="rId53" xr:uid="{14ADACB8-9CF0-454A-B04A-60407366A5E9}"/>
+    <hyperlink ref="A34" r:id="rId54" xr:uid="{FA3E5959-8F33-4256-9261-97F67C399972}"/>
+    <hyperlink ref="A35" r:id="rId55" xr:uid="{6DE6939B-9AEF-4FA1-A180-CCF152DE2028}"/>
+    <hyperlink ref="A36" r:id="rId56" xr:uid="{426AC50F-8135-4FE7-9DB6-65BA4BE50C60}"/>
+    <hyperlink ref="A37" r:id="rId57" xr:uid="{C2DDB2E3-380A-4DF7-95AC-F305377E3564}"/>
+    <hyperlink ref="A38" r:id="rId58" xr:uid="{393D2803-D030-443E-8E23-7529D0AA5041}"/>
+    <hyperlink ref="A39" r:id="rId59" xr:uid="{2198DED2-9842-4C69-B7F5-91A468CB209F}"/>
+    <hyperlink ref="A40" r:id="rId60" xr:uid="{9F3000CC-16F6-4256-B690-3127A05CBDF0}"/>
+    <hyperlink ref="D30" r:id="rId61" xr:uid="{22147264-7AE1-41A6-86E7-07E9E815E70C}"/>
+    <hyperlink ref="D31" r:id="rId62" xr:uid="{3E0349AF-88E8-46B8-945B-FB7F0A676AF8}"/>
+    <hyperlink ref="D32" r:id="rId63" xr:uid="{94B5BD05-F84A-42D9-90F9-3C7B59BC9B3A}"/>
+    <hyperlink ref="D33" r:id="rId64" xr:uid="{7E7FF7AC-E704-4F1B-966D-49DFE07D6892}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{254326A0-3CCB-4D23-8AE8-937D6B7E40E2}"/>
+    <hyperlink ref="D35" r:id="rId66" xr:uid="{8D6AD513-8265-4638-B6EE-5D5D4539B624}"/>
+    <hyperlink ref="D36" r:id="rId67" xr:uid="{4AEAD6F8-CDF6-4BC4-BA26-B976ED6E0212}"/>
+    <hyperlink ref="D37" r:id="rId68" xr:uid="{7CEBBF19-5AD4-47AB-BFE0-9406722140CC}"/>
+    <hyperlink ref="D38" r:id="rId69" xr:uid="{03A87D3C-2B89-48BC-8E0A-E6876D7D636D}"/>
+    <hyperlink ref="D39" r:id="rId70" xr:uid="{10306F70-0BC2-4AE5-8BC2-D41F0632F2F9}"/>
+    <hyperlink ref="D40" r:id="rId71" xr:uid="{99B9B86E-2A63-4F60-8C46-DCF100703916}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
--- a/src/public/samples/create-multiple-account.xlsx
+++ b/src/public/samples/create-multiple-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\webbankhoahoc\backend\src\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E3052-4AD4-4469-91AD-3F3F18D4028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E0FBC9-6AC3-484B-8061-4EE8BFB79D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66EBCBF0-8B5F-4925-8347-3CFF073396F6}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
